--- a/data/pca/factorExposure/factorExposure_2015-02-19.xlsx
+++ b/data/pca/factorExposure/factorExposure_2015-02-19.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="110">
   <si>
     <t>factor1</t>
   </si>
@@ -23,6 +23,18 @@
   </si>
   <si>
     <t>factor3</t>
+  </si>
+  <si>
+    <t>factor4</t>
+  </si>
+  <si>
+    <t>factor5</t>
+  </si>
+  <si>
+    <t>factor6</t>
+  </si>
+  <si>
+    <t>factor7</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -689,13 +701,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D104"/>
+  <dimension ref="A1:H104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -705,24 +717,48 @@
       <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
       <c r="A2" s="1" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="B2">
-        <v>0.01823598180348649</v>
+        <v>-0.01118410213264874</v>
       </c>
       <c r="C2">
-        <v>-0.04030961789734295</v>
+        <v>-0.05445010676556487</v>
       </c>
       <c r="D2">
-        <v>0.1155065902062493</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
+        <v>0.08274047943362685</v>
+      </c>
+      <c r="E2">
+        <v>0.07830656805846263</v>
+      </c>
+      <c r="F2">
+        <v>-0.03770037067404581</v>
+      </c>
+      <c r="G2">
+        <v>-0.1537761757472413</v>
+      </c>
+      <c r="H2">
+        <v>0.03990862500836033</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
       <c r="A3" s="1" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -733,24 +769,48 @@
       <c r="D3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:4">
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
       <c r="A4" s="1" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="B4">
-        <v>0.04513424710262998</v>
+        <v>-0.01992010516308181</v>
       </c>
       <c r="C4">
-        <v>-0.08073306467509292</v>
+        <v>-0.1153480085644118</v>
       </c>
       <c r="D4">
-        <v>0.08019779035939112</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
+        <v>0.08865341840626463</v>
+      </c>
+      <c r="E4">
+        <v>0.090305631368454</v>
+      </c>
+      <c r="F4">
+        <v>-0.09808038557984669</v>
+      </c>
+      <c r="G4">
+        <v>-0.007846940346315501</v>
+      </c>
+      <c r="H4">
+        <v>-0.06691309020329582</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
       <c r="A5" s="1" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -761,164 +821,308 @@
       <c r="D5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:4">
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
       <c r="A6" s="1" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="B6">
-        <v>0.02914559911820372</v>
+        <v>-0.03439341092020066</v>
       </c>
       <c r="C6">
-        <v>-0.02052169035761299</v>
+        <v>-0.0391952040996834</v>
       </c>
       <c r="D6">
-        <v>0.08886666796937588</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
+        <v>0.06967234535584495</v>
+      </c>
+      <c r="E6">
+        <v>0.1097236562016395</v>
+      </c>
+      <c r="F6">
+        <v>-0.04702676672101007</v>
+      </c>
+      <c r="G6">
+        <v>0.006918060378684619</v>
+      </c>
+      <c r="H6">
+        <v>0.0179140208757725</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
       <c r="A7" s="1" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="B7">
-        <v>-0.003655614088628184</v>
+        <v>-0.005634820570268049</v>
       </c>
       <c r="C7">
-        <v>-0.0334219637304663</v>
+        <v>-0.04578710265038382</v>
       </c>
       <c r="D7">
-        <v>0.07383854699686193</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
+        <v>0.05128980690130379</v>
+      </c>
+      <c r="E7">
+        <v>0.09312765551244574</v>
+      </c>
+      <c r="F7">
+        <v>-0.01250230946460328</v>
+      </c>
+      <c r="G7">
+        <v>0.002764209536125303</v>
+      </c>
+      <c r="H7">
+        <v>-0.03036702836828842</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
       <c r="A8" s="1" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="B8">
-        <v>0.0002955548215710479</v>
+        <v>0.004972613894232924</v>
       </c>
       <c r="C8">
-        <v>-0.02934904399532479</v>
+        <v>-0.03738716092086369</v>
       </c>
       <c r="D8">
-        <v>0.06614887532801214</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
+        <v>0.04389181464338224</v>
+      </c>
+      <c r="E8">
+        <v>0.06972038588446472</v>
+      </c>
+      <c r="F8">
+        <v>-0.05693019390629708</v>
+      </c>
+      <c r="G8">
+        <v>-0.06587242932860664</v>
+      </c>
+      <c r="H8">
+        <v>-0.04575410006069019</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
       <c r="A9" s="1" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="B9">
-        <v>0.03373067015232018</v>
+        <v>-0.01370239690289519</v>
       </c>
       <c r="C9">
-        <v>-0.06982135921661239</v>
+        <v>-0.09383001695040274</v>
       </c>
       <c r="D9">
-        <v>0.08622115428247315</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
+        <v>0.07730960514397801</v>
+      </c>
+      <c r="E9">
+        <v>0.07963864582967509</v>
+      </c>
+      <c r="F9">
+        <v>-0.06965873580741347</v>
+      </c>
+      <c r="G9">
+        <v>0.001019564969090311</v>
+      </c>
+      <c r="H9">
+        <v>-0.02138616200900765</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
       <c r="A10" s="1" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="B10">
-        <v>0.1987160666838487</v>
+        <v>-0.245127985037859</v>
       </c>
       <c r="C10">
-        <v>0.1550145037349002</v>
+        <v>0.09218242637012672</v>
       </c>
       <c r="D10">
-        <v>-0.04871663760953344</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
+        <v>-0.009195759047971685</v>
+      </c>
+      <c r="E10">
+        <v>-0.02972772922902329</v>
+      </c>
+      <c r="F10">
+        <v>-0.03750563857515188</v>
+      </c>
+      <c r="G10">
+        <v>0.009778206103000802</v>
+      </c>
+      <c r="H10">
+        <v>-0.007538773398846149</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
       <c r="A11" s="1" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="B11">
-        <v>0.01078934453055595</v>
+        <v>-0.009163151624869956</v>
       </c>
       <c r="C11">
-        <v>-0.04234758332085947</v>
+        <v>-0.06054991932089795</v>
       </c>
       <c r="D11">
-        <v>0.04208326795223599</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
+        <v>0.02737130853929118</v>
+      </c>
+      <c r="E11">
+        <v>0.05399141253231619</v>
+      </c>
+      <c r="F11">
+        <v>0.001972410355560724</v>
+      </c>
+      <c r="G11">
+        <v>0.007214521831613896</v>
+      </c>
+      <c r="H11">
+        <v>-0.01314953352123257</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
       <c r="A12" s="1" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="B12">
-        <v>0.01013853873471163</v>
+        <v>-0.009665407040580755</v>
       </c>
       <c r="C12">
-        <v>-0.04453660479158519</v>
+        <v>-0.05235909093318588</v>
       </c>
       <c r="D12">
-        <v>0.04991337348359497</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
+        <v>0.0331295090271527</v>
+      </c>
+      <c r="E12">
+        <v>0.04484129851811803</v>
+      </c>
+      <c r="F12">
+        <v>0.004987093309187152</v>
+      </c>
+      <c r="G12">
+        <v>0.005311290757851616</v>
+      </c>
+      <c r="H12">
+        <v>0.01836492810022878</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
       <c r="A13" s="1" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="B13">
-        <v>0.01014514937273095</v>
+        <v>-0.004581835451138573</v>
       </c>
       <c r="C13">
-        <v>-0.03588885149877286</v>
+        <v>-0.06474065950621014</v>
       </c>
       <c r="D13">
-        <v>0.1098896252266975</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
+        <v>0.1159549235221273</v>
+      </c>
+      <c r="E13">
+        <v>0.1039716243739715</v>
+      </c>
+      <c r="F13">
+        <v>-0.028212249478818</v>
+      </c>
+      <c r="G13">
+        <v>-0.04881625801475806</v>
+      </c>
+      <c r="H13">
+        <v>0.07602438918645348</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
       <c r="A14" s="1" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="B14">
-        <v>-0.01254767426396639</v>
+        <v>-0.001974776999443207</v>
       </c>
       <c r="C14">
-        <v>-0.02090731307862026</v>
+        <v>-0.0348180078068553</v>
       </c>
       <c r="D14">
-        <v>0.05754468275166127</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
+        <v>0.05412386747762055</v>
+      </c>
+      <c r="E14">
+        <v>0.1097149536687723</v>
+      </c>
+      <c r="F14">
+        <v>-0.03950940708702691</v>
+      </c>
+      <c r="G14">
+        <v>-0.02236294191289331</v>
+      </c>
+      <c r="H14">
+        <v>0.02988435852873658</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
       <c r="A15" s="1" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="B15">
-        <v>-0.00337374947700003</v>
+        <v>0.004170117373019684</v>
       </c>
       <c r="C15">
-        <v>-0.01296736897521574</v>
+        <v>-0.03116517411219392</v>
       </c>
       <c r="D15">
-        <v>0.04813231151029378</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4">
+        <v>0.04959303448052166</v>
+      </c>
+      <c r="E15">
+        <v>0.05834664448919155</v>
+      </c>
+      <c r="F15">
+        <v>-0.01363896794340907</v>
+      </c>
+      <c r="G15">
+        <v>-0.02130880564426851</v>
+      </c>
+      <c r="H15">
+        <v>-0.01247309834989853</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
       <c r="A16" s="1" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="B16">
-        <v>0.01061355961242175</v>
+        <v>-0.008718902000304916</v>
       </c>
       <c r="C16">
-        <v>-0.04144512699961954</v>
+        <v>-0.05372906570126583</v>
       </c>
       <c r="D16">
-        <v>0.04642610579339042</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
+        <v>0.03015453501650861</v>
+      </c>
+      <c r="E16">
+        <v>0.04961880901016595</v>
+      </c>
+      <c r="F16">
+        <v>0.00426644742499048</v>
+      </c>
+      <c r="G16">
+        <v>0.0221274709208745</v>
+      </c>
+      <c r="H16">
+        <v>0.0002075821469635534</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
       <c r="A17" s="1" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -929,10 +1133,22 @@
       <c r="D17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:4">
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+      <c r="H17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
       <c r="A18" s="1" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -943,122 +1159,230 @@
       <c r="D18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:4">
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+      <c r="H18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
       <c r="A19" s="1" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="B19">
-        <v>-0.003314402919690871</v>
+        <v>0.004042319949508455</v>
       </c>
       <c r="C19">
-        <v>-0.02427442567724342</v>
+        <v>-0.01748261154962047</v>
       </c>
       <c r="D19">
-        <v>0.04892875769895979</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4">
+        <v>0.02665794947211101</v>
+      </c>
+      <c r="E19">
+        <v>0.009883417679121364</v>
+      </c>
+      <c r="F19">
+        <v>-0.008373651219084873</v>
+      </c>
+      <c r="G19">
+        <v>-0.02710397642915238</v>
+      </c>
+      <c r="H19">
+        <v>0.01102964795518109</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8">
       <c r="A20" s="1" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="B20">
-        <v>0.0005125824852423599</v>
+        <v>-0.00448390684421671</v>
       </c>
       <c r="C20">
-        <v>-0.0304815180737306</v>
+        <v>-0.04699468834141542</v>
       </c>
       <c r="D20">
-        <v>0.05507170410279657</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4">
+        <v>0.05713081653557849</v>
+      </c>
+      <c r="E20">
+        <v>0.06696990823504713</v>
+      </c>
+      <c r="F20">
+        <v>-0.02362583117821078</v>
+      </c>
+      <c r="G20">
+        <v>0.02004416969568283</v>
+      </c>
+      <c r="H20">
+        <v>-0.0256278093516546</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8">
       <c r="A21" s="1" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="B21">
-        <v>0.001811110755091848</v>
+        <v>-0.001859080087482035</v>
       </c>
       <c r="C21">
-        <v>-0.03535901411479903</v>
+        <v>-0.04825850776798378</v>
       </c>
       <c r="D21">
-        <v>0.08391413450052228</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4">
+        <v>0.0849581835858474</v>
+      </c>
+      <c r="E21">
+        <v>0.09086258153380969</v>
+      </c>
+      <c r="F21">
+        <v>-0.102954571228871</v>
+      </c>
+      <c r="G21">
+        <v>-0.07965479368587161</v>
+      </c>
+      <c r="H21">
+        <v>0.07613644943334653</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8">
       <c r="A22" s="1" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="B22">
-        <v>0.004827735559615055</v>
+        <v>0.008096752415657708</v>
       </c>
       <c r="C22">
-        <v>-0.05531599513389102</v>
+        <v>-0.08488371446385787</v>
       </c>
       <c r="D22">
-        <v>0.1976147653327471</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4">
+        <v>0.1950392294055468</v>
+      </c>
+      <c r="E22">
+        <v>0.1291486618900827</v>
+      </c>
+      <c r="F22">
+        <v>-0.05456683266859239</v>
+      </c>
+      <c r="G22">
+        <v>-0.2149936674582615</v>
+      </c>
+      <c r="H22">
+        <v>-0.1376853796511026</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8">
       <c r="A23" s="1" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="B23">
-        <v>0.005234081693155744</v>
+        <v>0.005014455725027941</v>
       </c>
       <c r="C23">
-        <v>-0.05575789286614266</v>
+        <v>-0.08705920112648245</v>
       </c>
       <c r="D23">
-        <v>0.1967058513372325</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4">
+        <v>0.1985018757810937</v>
+      </c>
+      <c r="E23">
+        <v>0.1266661791570808</v>
+      </c>
+      <c r="F23">
+        <v>-0.05705568303832967</v>
+      </c>
+      <c r="G23">
+        <v>-0.2096778616439238</v>
+      </c>
+      <c r="H23">
+        <v>-0.1309343436025185</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8">
       <c r="A24" s="1" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="B24">
-        <v>0.01664905260560376</v>
+        <v>-0.01010770106508462</v>
       </c>
       <c r="C24">
-        <v>-0.06254074910952385</v>
+        <v>-0.07150323131677323</v>
       </c>
       <c r="D24">
-        <v>0.0570674699579154</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4">
+        <v>0.02735532429062129</v>
+      </c>
+      <c r="E24">
+        <v>0.06128533319262396</v>
+      </c>
+      <c r="F24">
+        <v>-7.30215703403841e-05</v>
+      </c>
+      <c r="G24">
+        <v>-0.002208729107735907</v>
+      </c>
+      <c r="H24">
+        <v>-0.007546058555158396</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8">
       <c r="A25" s="1" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="B25">
-        <v>0.01628484965632117</v>
+        <v>-0.01421281859013805</v>
       </c>
       <c r="C25">
-        <v>-0.05437500072035435</v>
+        <v>-0.06570532601215684</v>
       </c>
       <c r="D25">
-        <v>0.0439446146801997</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4">
+        <v>0.03123814066496401</v>
+      </c>
+      <c r="E25">
+        <v>0.04334006876996118</v>
+      </c>
+      <c r="F25">
+        <v>-0.0001626215841653888</v>
+      </c>
+      <c r="G25">
+        <v>0.01200539235309989</v>
+      </c>
+      <c r="H25">
+        <v>-0.003849006306280261</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8">
       <c r="A26" s="1" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="B26">
-        <v>0.005896037272391547</v>
+        <v>-0.01714495163762548</v>
       </c>
       <c r="C26">
-        <v>-0.01986790112384968</v>
+        <v>-0.03309583241400483</v>
       </c>
       <c r="D26">
-        <v>0.04999968230217773</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4">
+        <v>0.03417783495718816</v>
+      </c>
+      <c r="E26">
+        <v>0.07833530090548038</v>
+      </c>
+      <c r="F26">
+        <v>-0.05271978862423202</v>
+      </c>
+      <c r="G26">
+        <v>-0.02329691712863352</v>
+      </c>
+      <c r="H26">
+        <v>-0.0004857250460654156</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8">
       <c r="A27" s="1" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -1069,136 +1393,256 @@
       <c r="D27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:4">
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <v>0</v>
+      </c>
+      <c r="G27">
+        <v>0</v>
+      </c>
+      <c r="H27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8">
       <c r="A28" s="1" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="B28">
-        <v>0.279159220872927</v>
+        <v>-0.3128072204673596</v>
       </c>
       <c r="C28">
-        <v>0.168175865991737</v>
+        <v>0.09112762168711268</v>
       </c>
       <c r="D28">
-        <v>-0.01126700545071927</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4">
+        <v>-0.0004342780895853176</v>
+      </c>
+      <c r="E28">
+        <v>-0.05225602441648665</v>
+      </c>
+      <c r="F28">
+        <v>-0.05002767346440604</v>
+      </c>
+      <c r="G28">
+        <v>-0.06072495519242854</v>
+      </c>
+      <c r="H28">
+        <v>-0.03602807834882259</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8">
       <c r="A29" s="1" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="B29">
-        <v>-0.004504305694389968</v>
+        <v>-0.001003205011111048</v>
       </c>
       <c r="C29">
-        <v>-0.0241215212584108</v>
+        <v>-0.04068062062793731</v>
       </c>
       <c r="D29">
-        <v>0.06072952396567248</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4">
+        <v>0.06207864722688891</v>
+      </c>
+      <c r="E29">
+        <v>0.1231565275427594</v>
+      </c>
+      <c r="F29">
+        <v>-0.04349127722897594</v>
+      </c>
+      <c r="G29">
+        <v>-0.0101594746778156</v>
+      </c>
+      <c r="H29">
+        <v>0.04435261421482202</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8">
       <c r="A30" s="1" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="B30">
-        <v>0.02491549729974295</v>
+        <v>-0.01660744919702737</v>
       </c>
       <c r="C30">
-        <v>-0.07621724705732044</v>
+        <v>-0.09993926586247194</v>
       </c>
       <c r="D30">
-        <v>0.138153365402732</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4">
+        <v>0.09208244275784655</v>
+      </c>
+      <c r="E30">
+        <v>0.1275163552588126</v>
+      </c>
+      <c r="F30">
+        <v>-0.02442737019464168</v>
+      </c>
+      <c r="G30">
+        <v>-0.0004291547284732506</v>
+      </c>
+      <c r="H30">
+        <v>-0.02731132558863134</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8">
       <c r="A31" s="1" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="B31">
-        <v>0.03220490326915239</v>
+        <v>-0.0104208148938337</v>
       </c>
       <c r="C31">
-        <v>-0.08471220165244148</v>
+        <v>-0.09547741260114526</v>
       </c>
       <c r="D31">
-        <v>0.04693907579130391</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4">
+        <v>0.02228830630497132</v>
+      </c>
+      <c r="E31">
+        <v>0.03433487118932807</v>
+      </c>
+      <c r="F31">
+        <v>-0.02187799069763602</v>
+      </c>
+      <c r="G31">
+        <v>-0.02064823396087192</v>
+      </c>
+      <c r="H31">
+        <v>-0.01074004147519884</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8">
       <c r="A32" s="1" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="B32">
-        <v>0.01508502933941822</v>
+        <v>-0.01358833454395945</v>
       </c>
       <c r="C32">
-        <v>-0.04341909138938604</v>
+        <v>-0.05262533860459504</v>
       </c>
       <c r="D32">
-        <v>0.07094288253558838</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4">
+        <v>0.07585140631507545</v>
+      </c>
+      <c r="E32">
+        <v>0.03055143772385974</v>
+      </c>
+      <c r="F32">
+        <v>-0.05577538419640461</v>
+      </c>
+      <c r="G32">
+        <v>-0.0369157275906042</v>
+      </c>
+      <c r="H32">
+        <v>0.02333926186994308</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8">
       <c r="A33" s="1" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="B33">
-        <v>0.004981991747202445</v>
+        <v>-0.006814810055619713</v>
       </c>
       <c r="C33">
-        <v>-0.04415373701247181</v>
+        <v>-0.06653089395893637</v>
       </c>
       <c r="D33">
-        <v>0.08718465124723344</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4">
+        <v>0.08062357238480547</v>
+      </c>
+      <c r="E33">
+        <v>0.09378607120056524</v>
+      </c>
+      <c r="F33">
+        <v>-0.0351528628883931</v>
+      </c>
+      <c r="G33">
+        <v>-0.006036716543032996</v>
+      </c>
+      <c r="H33">
+        <v>0.00317189787450105</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8">
       <c r="A34" s="1" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="B34">
-        <v>0.01248966484909669</v>
+        <v>-0.008571015297371214</v>
       </c>
       <c r="C34">
-        <v>-0.06111377986326265</v>
+        <v>-0.06210470247855301</v>
       </c>
       <c r="D34">
-        <v>0.05777775089442285</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4">
+        <v>0.01374565011841726</v>
+      </c>
+      <c r="E34">
+        <v>0.04478505507645622</v>
+      </c>
+      <c r="F34">
+        <v>0.03267833054679472</v>
+      </c>
+      <c r="G34">
+        <v>-0.00180595234043804</v>
+      </c>
+      <c r="H34">
+        <v>0.007457287415926933</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8">
       <c r="A35" s="1" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="B35">
-        <v>-0.0003159033060825318</v>
+        <v>-0.004414733997824394</v>
       </c>
       <c r="C35">
-        <v>-0.001221900261245095</v>
+        <v>-0.01595544757851444</v>
       </c>
       <c r="D35">
-        <v>0.001744292699049727</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4">
+        <v>0.02701469888381447</v>
+      </c>
+      <c r="E35">
+        <v>0.03343956366445295</v>
+      </c>
+      <c r="F35">
+        <v>-0.02557146574805222</v>
+      </c>
+      <c r="G35">
+        <v>0.0009101620890799406</v>
+      </c>
+      <c r="H35">
+        <v>0.008819388305238141</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8">
       <c r="A36" s="1" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="B36">
-        <v>0.006220418286049329</v>
+        <v>-0.01128669904105094</v>
       </c>
       <c r="C36">
-        <v>-0.01166052640784052</v>
+        <v>-0.02580682344791842</v>
       </c>
       <c r="D36">
-        <v>0.04814305510735052</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4">
+        <v>0.04583984508908628</v>
+      </c>
+      <c r="E36">
+        <v>0.0706733355629704</v>
+      </c>
+      <c r="F36">
+        <v>-0.05306457180908042</v>
+      </c>
+      <c r="G36">
+        <v>-0.009174722905732303</v>
+      </c>
+      <c r="H36">
+        <v>0.003191312480476653</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8">
       <c r="A37" s="1" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1209,66 +1653,126 @@
       <c r="D37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:4">
+      <c r="E37">
+        <v>0</v>
+      </c>
+      <c r="F37">
+        <v>0</v>
+      </c>
+      <c r="G37">
+        <v>0</v>
+      </c>
+      <c r="H37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8">
       <c r="A38" s="1" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="B38">
-        <v>0.001568027131205976</v>
+        <v>-0.007311436998502816</v>
       </c>
       <c r="C38">
-        <v>-0.01119400350690605</v>
+        <v>-0.03014048558314973</v>
       </c>
       <c r="D38">
-        <v>0.07638185004608503</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4">
+        <v>0.0707980127846113</v>
+      </c>
+      <c r="E38">
+        <v>0.07108174941329842</v>
+      </c>
+      <c r="F38">
+        <v>-0.01499717429012277</v>
+      </c>
+      <c r="G38">
+        <v>-0.02704423508553577</v>
+      </c>
+      <c r="H38">
+        <v>-0.04425937335549072</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8">
       <c r="A39" s="1" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="B39">
-        <v>0.01213383156727582</v>
+        <v>-0.007060291880908381</v>
       </c>
       <c r="C39">
-        <v>-0.06191774434930569</v>
+        <v>-0.08838858019579311</v>
       </c>
       <c r="D39">
-        <v>0.09729537099675391</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4">
+        <v>0.05955573299491147</v>
+      </c>
+      <c r="E39">
+        <v>0.1090508890694551</v>
+      </c>
+      <c r="F39">
+        <v>-0.006252630997520527</v>
+      </c>
+      <c r="G39">
+        <v>0.0004025898836267444</v>
+      </c>
+      <c r="H39">
+        <v>-0.002245248455073307</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8">
       <c r="A40" s="1" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="B40">
-        <v>0.01478628614436243</v>
+        <v>-0.01333915057806671</v>
       </c>
       <c r="C40">
-        <v>-0.03081238434857025</v>
+        <v>-0.04441444358543984</v>
       </c>
       <c r="D40">
-        <v>0.1094810582141</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4">
+        <v>0.06408718874127743</v>
+      </c>
+      <c r="E40">
+        <v>0.08611430420395252</v>
+      </c>
+      <c r="F40">
+        <v>0.02655160933651288</v>
+      </c>
+      <c r="G40">
+        <v>-0.07105885878056499</v>
+      </c>
+      <c r="H40">
+        <v>0.01314670629842849</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8">
       <c r="A41" s="1" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="B41">
-        <v>0.008574010038189066</v>
+        <v>-0.01734951694333373</v>
       </c>
       <c r="C41">
-        <v>-0.007188374556952936</v>
+        <v>-0.02511274672738259</v>
       </c>
       <c r="D41">
-        <v>0.02213785974731025</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4">
+        <v>0.03349031459740121</v>
+      </c>
+      <c r="E41">
+        <v>0.02455200522944923</v>
+      </c>
+      <c r="F41">
+        <v>-0.01963952135054199</v>
+      </c>
+      <c r="G41">
+        <v>-0.002735309976212416</v>
+      </c>
+      <c r="H41">
+        <v>-0.006447013969525572</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8">
       <c r="A42" s="1" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -1279,38 +1783,74 @@
       <c r="D42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:4">
+      <c r="E42">
+        <v>0</v>
+      </c>
+      <c r="F42">
+        <v>0</v>
+      </c>
+      <c r="G42">
+        <v>0</v>
+      </c>
+      <c r="H42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8">
       <c r="A43" s="1" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="B43">
-        <v>-0.003496010919417421</v>
+        <v>-0.008276108782787502</v>
       </c>
       <c r="C43">
-        <v>-0.00406140221681887</v>
+        <v>-0.01884726298624434</v>
       </c>
       <c r="D43">
-        <v>0.03683638741169538</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4">
+        <v>0.03996155205900517</v>
+      </c>
+      <c r="E43">
+        <v>0.04164604974000088</v>
+      </c>
+      <c r="F43">
+        <v>-0.02457526976551849</v>
+      </c>
+      <c r="G43">
+        <v>-0.001735318941273145</v>
+      </c>
+      <c r="H43">
+        <v>-0.01797425737141589</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8">
       <c r="A44" s="1" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="B44">
-        <v>0.01781414218642324</v>
+        <v>-0.008757154192169037</v>
       </c>
       <c r="C44">
-        <v>-0.03431293339059943</v>
+        <v>-0.0533918209388333</v>
       </c>
       <c r="D44">
-        <v>0.08200254209309375</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4">
+        <v>0.07039015637833575</v>
+      </c>
+      <c r="E44">
+        <v>0.09717559909540309</v>
+      </c>
+      <c r="F44">
+        <v>-0.03933890682747088</v>
+      </c>
+      <c r="G44">
+        <v>-0.03444747504405705</v>
+      </c>
+      <c r="H44">
+        <v>-0.02307764788580281</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8">
       <c r="A45" s="1" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1321,94 +1861,178 @@
       <c r="D45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:4">
+      <c r="E45">
+        <v>0</v>
+      </c>
+      <c r="F45">
+        <v>0</v>
+      </c>
+      <c r="G45">
+        <v>0</v>
+      </c>
+      <c r="H45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8">
       <c r="A46" s="1" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="B46">
-        <v>0.002125247810611489</v>
+        <v>0.0002843347669405128</v>
       </c>
       <c r="C46">
-        <v>-0.03224978289752375</v>
+        <v>-0.04303451662055287</v>
       </c>
       <c r="D46">
-        <v>0.06464614440734023</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4">
+        <v>0.03938222315896736</v>
+      </c>
+      <c r="E46">
+        <v>0.09367426655130522</v>
+      </c>
+      <c r="F46">
+        <v>-0.0415450063851658</v>
+      </c>
+      <c r="G46">
+        <v>-0.02190653595051684</v>
+      </c>
+      <c r="H46">
+        <v>-0.001120614488322635</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8">
       <c r="A47" s="1" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="B47">
-        <v>0.06746587029287986</v>
+        <v>-0.03082811467301193</v>
       </c>
       <c r="C47">
-        <v>-0.1137716746225874</v>
+        <v>-0.1247896294122892</v>
       </c>
       <c r="D47">
-        <v>0.04981553117010092</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4">
+        <v>0.01859886504289019</v>
+      </c>
+      <c r="E47">
+        <v>0.007302298377883759</v>
+      </c>
+      <c r="F47">
+        <v>-0.001480937759207217</v>
+      </c>
+      <c r="G47">
+        <v>0.006771937216830231</v>
+      </c>
+      <c r="H47">
+        <v>-0.02197815924121762</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8">
       <c r="A48" s="1" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="B48">
-        <v>0.003763138378798935</v>
+        <v>-0.01200392881517298</v>
       </c>
       <c r="C48">
-        <v>-0.01900607343407455</v>
+        <v>-0.03411328848199709</v>
       </c>
       <c r="D48">
-        <v>0.05017344436234047</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4">
+        <v>0.05049046279668237</v>
+      </c>
+      <c r="E48">
+        <v>0.07421771231751693</v>
+      </c>
+      <c r="F48">
+        <v>-0.06552878981575072</v>
+      </c>
+      <c r="G48">
+        <v>-0.01792250349011867</v>
+      </c>
+      <c r="H48">
+        <v>-0.009217612621283004</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8">
       <c r="A49" s="1" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="B49">
-        <v>0</v>
+        <v>-0.003368853225917275</v>
       </c>
       <c r="C49">
-        <v>0</v>
+        <v>-0.002322556827761318</v>
       </c>
       <c r="D49">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4">
+        <v>0.001921916840422769</v>
+      </c>
+      <c r="E49">
+        <v>-0.002005497996123164</v>
+      </c>
+      <c r="F49">
+        <v>0.004695511900147788</v>
+      </c>
+      <c r="G49">
+        <v>0.007819124094917597</v>
+      </c>
+      <c r="H49">
+        <v>0.006308063719344083</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8">
       <c r="A50" s="1" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="B50">
-        <v>0.03156194287979801</v>
+        <v>-0.01478703890898942</v>
       </c>
       <c r="C50">
-        <v>-0.05937227864600222</v>
+        <v>-0.07601187971703621</v>
       </c>
       <c r="D50">
-        <v>0.06351189194263744</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4">
+        <v>0.03761832195473917</v>
+      </c>
+      <c r="E50">
+        <v>0.04236285154614183</v>
+      </c>
+      <c r="F50">
+        <v>-0.01170893306971913</v>
+      </c>
+      <c r="G50">
+        <v>-0.01245440237991026</v>
+      </c>
+      <c r="H50">
+        <v>-0.0203132355340028</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8">
       <c r="A51" s="1" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="B51">
-        <v>0.005390116278844681</v>
+        <v>0.004437703379148923</v>
       </c>
       <c r="C51">
-        <v>-0.007970987780029739</v>
+        <v>-0.0195025158840186</v>
       </c>
       <c r="D51">
-        <v>0.05071143377299877</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4">
+        <v>0.02264319972989307</v>
+      </c>
+      <c r="E51">
+        <v>0.06348344432318741</v>
+      </c>
+      <c r="F51">
+        <v>-0.03413587764359353</v>
+      </c>
+      <c r="G51">
+        <v>-0.04122467902489842</v>
+      </c>
+      <c r="H51">
+        <v>0.0008529384459705017</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8">
       <c r="A52" s="1" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -1419,66 +2043,126 @@
       <c r="D52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:4">
+      <c r="E52">
+        <v>0</v>
+      </c>
+      <c r="F52">
+        <v>0</v>
+      </c>
+      <c r="G52">
+        <v>0</v>
+      </c>
+      <c r="H52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8">
       <c r="A53" s="1" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="B53">
-        <v>0.1026838855524305</v>
+        <v>-0.05970797406062942</v>
       </c>
       <c r="C53">
-        <v>-0.1382615731179643</v>
+        <v>-0.1642333159898176</v>
       </c>
       <c r="D53">
-        <v>-0.006719109640390679</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4">
+        <v>-0.01892272013424475</v>
+      </c>
+      <c r="E53">
+        <v>-0.03210605320354301</v>
+      </c>
+      <c r="F53">
+        <v>-0.03397935748369887</v>
+      </c>
+      <c r="G53">
+        <v>-0.007167650005673486</v>
+      </c>
+      <c r="H53">
+        <v>-0.01118421155196419</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8">
       <c r="A54" s="1" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="B54">
-        <v>0.004475919709098734</v>
+        <v>-0.01011842629261122</v>
       </c>
       <c r="C54">
-        <v>-0.02535771186475702</v>
+        <v>-0.04115135128882344</v>
       </c>
       <c r="D54">
-        <v>0.08197793007856742</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4">
+        <v>0.06163624481272253</v>
+      </c>
+      <c r="E54">
+        <v>0.0660047935163916</v>
+      </c>
+      <c r="F54">
+        <v>-0.01657561053574694</v>
+      </c>
+      <c r="G54">
+        <v>-0.02259886097344551</v>
+      </c>
+      <c r="H54">
+        <v>-0.02579571736797649</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8">
       <c r="A55" s="1" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="B55">
-        <v>0.08500453487299026</v>
+        <v>-0.04188877910482251</v>
       </c>
       <c r="C55">
-        <v>-0.1137238023872577</v>
+        <v>-0.128482760422949</v>
       </c>
       <c r="D55">
-        <v>0.0003459301138664105</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4">
+        <v>-0.04775939641372645</v>
+      </c>
+      <c r="E55">
+        <v>-0.0167696588709364</v>
+      </c>
+      <c r="F55">
+        <v>0.002120802119296374</v>
+      </c>
+      <c r="G55">
+        <v>-0.02260399171084962</v>
+      </c>
+      <c r="H55">
+        <v>-0.00526153379066584</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8">
       <c r="A56" s="1" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="B56">
-        <v>0.1245151402271512</v>
+        <v>-0.06053654110790081</v>
       </c>
       <c r="C56">
-        <v>-0.1635498785097354</v>
+        <v>-0.1937189995831945</v>
       </c>
       <c r="D56">
-        <v>0.02097002671713946</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4">
+        <v>-0.04189236650714913</v>
+      </c>
+      <c r="E56">
+        <v>-0.04590586588938496</v>
+      </c>
+      <c r="F56">
+        <v>0.005751651686312646</v>
+      </c>
+      <c r="G56">
+        <v>-0.07021283015278913</v>
+      </c>
+      <c r="H56">
+        <v>-0.0183911541202746</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8">
       <c r="A57" s="1" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -1489,66 +2173,126 @@
       <c r="D57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:4">
+      <c r="E57">
+        <v>0</v>
+      </c>
+      <c r="F57">
+        <v>0</v>
+      </c>
+      <c r="G57">
+        <v>0</v>
+      </c>
+      <c r="H57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8">
       <c r="A58" s="1" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="B58">
-        <v>0.00716422092611977</v>
+        <v>-0.007936084911252255</v>
       </c>
       <c r="C58">
-        <v>-0.0313253866925108</v>
+        <v>-0.07557590990954374</v>
       </c>
       <c r="D58">
-        <v>0.1770299146917543</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4">
+        <v>0.2101929494278367</v>
+      </c>
+      <c r="E58">
+        <v>0.1394681544802592</v>
+      </c>
+      <c r="F58">
+        <v>-0.1309429743608417</v>
+      </c>
+      <c r="G58">
+        <v>-0.1552829141745987</v>
+      </c>
+      <c r="H58">
+        <v>-0.08959304423936418</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8">
       <c r="A59" s="1" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="B59">
-        <v>0.2050528802634204</v>
+        <v>-0.2612894837217116</v>
       </c>
       <c r="C59">
-        <v>0.1216095538933261</v>
+        <v>0.05590224745556255</v>
       </c>
       <c r="D59">
-        <v>0.04447577037877257</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4">
+        <v>0.04571836735534612</v>
+      </c>
+      <c r="E59">
+        <v>-0.002468183124690172</v>
+      </c>
+      <c r="F59">
+        <v>-0.0266303176504812</v>
+      </c>
+      <c r="G59">
+        <v>-0.03769538439035244</v>
+      </c>
+      <c r="H59">
+        <v>0.02900150105242014</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8">
       <c r="A60" s="1" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="B60">
-        <v>0.1748394247064783</v>
+        <v>-0.1528505380307859</v>
       </c>
       <c r="C60">
-        <v>-0.1108746301148668</v>
+        <v>-0.1665603625427218</v>
       </c>
       <c r="D60">
-        <v>0.1269669611923143</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4">
+        <v>0.01860788290120065</v>
+      </c>
+      <c r="E60">
+        <v>0.1095459097396044</v>
+      </c>
+      <c r="F60">
+        <v>0.1969749055517398</v>
+      </c>
+      <c r="G60">
+        <v>0.2342552348020688</v>
+      </c>
+      <c r="H60">
+        <v>0.1664023979201261</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8">
       <c r="A61" s="1" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="B61">
-        <v>0.01984625462735868</v>
+        <v>-0.01285730059275658</v>
       </c>
       <c r="C61">
-        <v>-0.06038111107392001</v>
+        <v>-0.08225398598583782</v>
       </c>
       <c r="D61">
-        <v>0.07123400806112615</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4">
+        <v>0.03746701081245751</v>
+      </c>
+      <c r="E61">
+        <v>0.07693997023001616</v>
+      </c>
+      <c r="F61">
+        <v>0.005143951965131351</v>
+      </c>
+      <c r="G61">
+        <v>0.001602632979105911</v>
+      </c>
+      <c r="H61">
+        <v>0.001168027909679274</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8">
       <c r="A62" s="1" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="B62">
         <v>0</v>
@@ -1559,108 +2303,204 @@
       <c r="D62">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="1:4">
+      <c r="E62">
+        <v>0</v>
+      </c>
+      <c r="F62">
+        <v>0</v>
+      </c>
+      <c r="G62">
+        <v>0</v>
+      </c>
+      <c r="H62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8">
       <c r="A63" s="1" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="B63">
-        <v>0.01003156522445881</v>
+        <v>-0.01598286707157552</v>
       </c>
       <c r="C63">
-        <v>-0.02816893399928943</v>
+        <v>-0.04632642709443715</v>
       </c>
       <c r="D63">
-        <v>0.0703880769126628</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4">
+        <v>0.03039391544851117</v>
+      </c>
+      <c r="E63">
+        <v>0.09406973344327939</v>
+      </c>
+      <c r="F63">
+        <v>-0.02656380066066777</v>
+      </c>
+      <c r="G63">
+        <v>-0.002219024089224305</v>
+      </c>
+      <c r="H63">
+        <v>-0.002713602345128861</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8">
       <c r="A64" s="1" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="B64">
-        <v>0.04554314353085402</v>
+        <v>-0.01578112268271938</v>
       </c>
       <c r="C64">
-        <v>-0.09567187561927955</v>
+        <v>-0.1043245941163705</v>
       </c>
       <c r="D64">
-        <v>0.015956118488178</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4">
+        <v>0.004576287602951636</v>
+      </c>
+      <c r="E64">
+        <v>0.03356593475771806</v>
+      </c>
+      <c r="F64">
+        <v>-0.02698922499531565</v>
+      </c>
+      <c r="G64">
+        <v>0.03187755419053304</v>
+      </c>
+      <c r="H64">
+        <v>-0.03775373294522778</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8">
       <c r="A65" s="1" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="B65">
-        <v>0.02604176324701222</v>
+        <v>-0.02702230003075014</v>
       </c>
       <c r="C65">
-        <v>-0.01746943151668448</v>
+        <v>-0.04532602702659239</v>
       </c>
       <c r="D65">
-        <v>0.09019180975284984</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4">
+        <v>0.08389331259528132</v>
+      </c>
+      <c r="E65">
+        <v>0.09120181796944875</v>
+      </c>
+      <c r="F65">
+        <v>0.003709403777839291</v>
+      </c>
+      <c r="G65">
+        <v>0.06509378719548539</v>
+      </c>
+      <c r="H65">
+        <v>-0.009307219729622566</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8">
       <c r="A66" s="1" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="B66">
-        <v>0.0200707321210303</v>
+        <v>-0.00812583273375291</v>
       </c>
       <c r="C66">
-        <v>-0.07540363517884929</v>
+        <v>-0.1110366306846267</v>
       </c>
       <c r="D66">
-        <v>0.1178224590286542</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4">
+        <v>0.08521122326827189</v>
+      </c>
+      <c r="E66">
+        <v>0.1091133339398446</v>
+      </c>
+      <c r="F66">
+        <v>-0.002596959536500333</v>
+      </c>
+      <c r="G66">
+        <v>-0.01959347932213013</v>
+      </c>
+      <c r="H66">
+        <v>-0.01127744488091782</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8">
       <c r="A67" s="1" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="B67">
-        <v>0.01527353605342179</v>
+        <v>-0.01628240464853665</v>
       </c>
       <c r="C67">
-        <v>-0.02024652948939384</v>
+        <v>-0.0368261144063885</v>
       </c>
       <c r="D67">
-        <v>0.045032001649736</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4">
+        <v>0.03542050157691189</v>
+      </c>
+      <c r="E67">
+        <v>0.05210088099594704</v>
+      </c>
+      <c r="F67">
+        <v>0.0150227583969364</v>
+      </c>
+      <c r="G67">
+        <v>-0.005439109060804285</v>
+      </c>
+      <c r="H67">
+        <v>-0.03260846559629968</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8">
       <c r="A68" s="1" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="B68">
-        <v>0.2141551147000301</v>
+        <v>-0.2784692351587872</v>
       </c>
       <c r="C68">
-        <v>0.132343353024361</v>
+        <v>0.06797131247954973</v>
       </c>
       <c r="D68">
-        <v>0.02439061942392192</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4">
+        <v>0.03648925326114075</v>
+      </c>
+      <c r="E68">
+        <v>0.01828783708302503</v>
+      </c>
+      <c r="F68">
+        <v>-0.02746312301595689</v>
+      </c>
+      <c r="G68">
+        <v>-0.04320491618155537</v>
+      </c>
+      <c r="H68">
+        <v>0.0002840336434131079</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8">
       <c r="A69" s="1" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="B69">
-        <v>0.04847072376413446</v>
+        <v>-0.01470692116289955</v>
       </c>
       <c r="C69">
-        <v>-0.1181051182909345</v>
+        <v>-0.1107299991668995</v>
       </c>
       <c r="D69">
-        <v>0.06338359715358514</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4">
+        <v>0.01502278678421892</v>
+      </c>
+      <c r="E69">
+        <v>0.01697480865635077</v>
+      </c>
+      <c r="F69">
+        <v>0.008745042724584939</v>
+      </c>
+      <c r="G69">
+        <v>0.006046517256019015</v>
+      </c>
+      <c r="H69">
+        <v>0.001897966466108276</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8">
       <c r="A70" s="1" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="B70">
         <v>0</v>
@@ -1671,360 +2511,672 @@
       <c r="D70">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="1:4">
+      <c r="E70">
+        <v>0</v>
+      </c>
+      <c r="F70">
+        <v>0</v>
+      </c>
+      <c r="G70">
+        <v>0</v>
+      </c>
+      <c r="H70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8">
       <c r="A71" s="1" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="B71">
-        <v>0.2344174665083237</v>
+        <v>-0.2714894323080802</v>
       </c>
       <c r="C71">
-        <v>0.1541296220886199</v>
+        <v>0.0823381787717358</v>
       </c>
       <c r="D71">
-        <v>0.01641297326853369</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4">
+        <v>0.01230456963016947</v>
+      </c>
+      <c r="E71">
+        <v>-0.005400431097324654</v>
+      </c>
+      <c r="F71">
+        <v>-0.01214013246608171</v>
+      </c>
+      <c r="G71">
+        <v>-0.04622261209443922</v>
+      </c>
+      <c r="H71">
+        <v>-0.02966065593034829</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8">
       <c r="A72" s="1" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="B72">
-        <v>0.09800135271454508</v>
+        <v>-0.06444861999911734</v>
       </c>
       <c r="C72">
-        <v>-0.0803108686278117</v>
+        <v>-0.1244155843703102</v>
       </c>
       <c r="D72">
-        <v>0.09624429239168295</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4">
+        <v>0.03075818217528306</v>
+      </c>
+      <c r="E72">
+        <v>0.08600828437176924</v>
+      </c>
+      <c r="F72">
+        <v>0.01570598289826275</v>
+      </c>
+      <c r="G72">
+        <v>0.03851182403275345</v>
+      </c>
+      <c r="H72">
+        <v>0.006913500100155851</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8">
       <c r="A73" s="1" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="B73">
-        <v>0.1733536291183921</v>
+        <v>-0.159378227659993</v>
       </c>
       <c r="C73">
-        <v>-0.08789419396682421</v>
+        <v>-0.1691529435998495</v>
       </c>
       <c r="D73">
-        <v>0.1852201254286053</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4">
+        <v>0.001114001062542968</v>
+      </c>
+      <c r="E73">
+        <v>0.2485528372471773</v>
+      </c>
+      <c r="F73">
+        <v>0.3180190545976179</v>
+      </c>
+      <c r="G73">
+        <v>0.4019415896462306</v>
+      </c>
+      <c r="H73">
+        <v>0.1910670290039349</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8">
       <c r="A74" s="1" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="B74">
-        <v>0.09821353428915879</v>
+        <v>-0.05163062982420894</v>
       </c>
       <c r="C74">
-        <v>-0.1222956519602473</v>
+        <v>-0.1398956760334022</v>
       </c>
       <c r="D74">
-        <v>-0.0535865210287132</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4">
+        <v>-0.0451092739976072</v>
+      </c>
+      <c r="E74">
+        <v>-0.04510683137067804</v>
+      </c>
+      <c r="F74">
+        <v>-0.03128521633553197</v>
+      </c>
+      <c r="G74">
+        <v>-0.003267251456128916</v>
+      </c>
+      <c r="H74">
+        <v>-0.006263764307238983</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8">
       <c r="A75" s="1" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="B75">
-        <v>0.2087936929249805</v>
+        <v>-0.0979426454259418</v>
       </c>
       <c r="C75">
-        <v>-0.2165732507595303</v>
+        <v>-0.2598702350962657</v>
       </c>
       <c r="D75">
-        <v>-0.03112265088874061</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4">
+        <v>-0.09370664250553014</v>
+      </c>
+      <c r="E75">
+        <v>-0.1353318455930365</v>
+      </c>
+      <c r="F75">
+        <v>0.05966714315024293</v>
+      </c>
+      <c r="G75">
+        <v>-0.1089964473171868</v>
+      </c>
+      <c r="H75">
+        <v>-0.1101467926229049</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8">
       <c r="A76" s="1" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="B76">
-        <v>0.1269931037974913</v>
+        <v>-0.06105409774188466</v>
       </c>
       <c r="C76">
-        <v>-0.1475213684960983</v>
+        <v>-0.1775609836783601</v>
       </c>
       <c r="D76">
-        <v>0.009821531488244401</v>
-      </c>
-    </row>
-    <row r="77" spans="1:4">
+        <v>-0.04226753190504514</v>
+      </c>
+      <c r="E76">
+        <v>-0.04885112869820148</v>
+      </c>
+      <c r="F76">
+        <v>0.01089286346548565</v>
+      </c>
+      <c r="G76">
+        <v>-0.05057749342032108</v>
+      </c>
+      <c r="H76">
+        <v>-0.02791632728427565</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8">
       <c r="A77" s="1" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="B77">
-        <v>0.004120796573117454</v>
+        <v>0.002753569786001707</v>
       </c>
       <c r="C77">
-        <v>-0.08051578877985538</v>
+        <v>-0.1256874381408057</v>
       </c>
       <c r="D77">
-        <v>0.2092729914266948</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4">
+        <v>0.7011042501553985</v>
+      </c>
+      <c r="E77">
+        <v>-0.6204324854772602</v>
+      </c>
+      <c r="F77">
+        <v>0.1397300569289706</v>
+      </c>
+      <c r="G77">
+        <v>0.1766876701510779</v>
+      </c>
+      <c r="H77">
+        <v>0.02104544007808244</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8">
       <c r="A78" s="1" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="B78">
-        <v>0.03085655098492081</v>
+        <v>-0.02261309527145457</v>
       </c>
       <c r="C78">
-        <v>-0.08106755915299506</v>
+        <v>-0.09738100035473486</v>
       </c>
       <c r="D78">
-        <v>0.1365240679693321</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4">
+        <v>0.0569464690755658</v>
+      </c>
+      <c r="E78">
+        <v>0.1056792662121917</v>
+      </c>
+      <c r="F78">
+        <v>-0.04757033655755901</v>
+      </c>
+      <c r="G78">
+        <v>-0.1063586329649664</v>
+      </c>
+      <c r="H78">
+        <v>0.02763984069059969</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8">
       <c r="A79" s="1" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="B79">
-        <v>0.1081780028482133</v>
+        <v>-0.05188809730105887</v>
       </c>
       <c r="C79">
-        <v>-0.2181438972851041</v>
+        <v>-0.2184862032953544</v>
       </c>
       <c r="D79">
-        <v>-0.6589553484214814</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4">
+        <v>-0.1450416016898212</v>
+      </c>
+      <c r="E79">
+        <v>-0.1533746512361449</v>
+      </c>
+      <c r="F79">
+        <v>-0.7685404260940359</v>
+      </c>
+      <c r="G79">
+        <v>0.4446964563010255</v>
+      </c>
+      <c r="H79">
+        <v>0.07128947189182366</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8">
       <c r="A80" s="1" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="B80">
-        <v>0.006512542463988994</v>
+        <v>-0.008734554525078438</v>
       </c>
       <c r="C80">
-        <v>-0.04525316546329162</v>
+        <v>-0.04601999913230979</v>
       </c>
       <c r="D80">
-        <v>0.02896495533603415</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4">
+        <v>0.002788960697613077</v>
+      </c>
+      <c r="E80">
+        <v>0.06497227456140958</v>
+      </c>
+      <c r="F80">
+        <v>0.01141326724787784</v>
+      </c>
+      <c r="G80">
+        <v>-0.005094764382720171</v>
+      </c>
+      <c r="H80">
+        <v>0.08077556718245464</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8">
       <c r="A81" s="1" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="B81">
-        <v>0.09680222056400208</v>
+        <v>-0.03295212134444071</v>
       </c>
       <c r="C81">
-        <v>-0.1414589147386203</v>
+        <v>-0.1580037158804524</v>
       </c>
       <c r="D81">
-        <v>-0.07251160678390037</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4">
+        <v>-0.06131423523998038</v>
+      </c>
+      <c r="E81">
+        <v>-0.07015262045975526</v>
+      </c>
+      <c r="F81">
+        <v>-0.04969217865368131</v>
+      </c>
+      <c r="G81">
+        <v>-0.07394275623866907</v>
+      </c>
+      <c r="H81">
+        <v>-0.007753685299600395</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8">
       <c r="A82" s="1" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="B82">
-        <v>0.2014565187486889</v>
+        <v>-0.07822192727451245</v>
       </c>
       <c r="C82">
-        <v>-0.3077714472744565</v>
+        <v>-0.2917412261214584</v>
       </c>
       <c r="D82">
-        <v>-0.05542806904502786</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4">
+        <v>-0.1821340727860494</v>
+      </c>
+      <c r="E82">
+        <v>-0.1577553106228156</v>
+      </c>
+      <c r="F82">
+        <v>0.1178529450870092</v>
+      </c>
+      <c r="G82">
+        <v>-0.1760689189616142</v>
+      </c>
+      <c r="H82">
+        <v>-0.03586144785215076</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8">
       <c r="A83" s="1" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="B83">
-        <v>-0.01333136844302309</v>
+        <v>0.006591369717617131</v>
       </c>
       <c r="C83">
-        <v>-0.04911338051860361</v>
+        <v>-0.01618495483151218</v>
       </c>
       <c r="D83">
-        <v>-0.003711904580723188</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4">
+        <v>0.03005829356244024</v>
+      </c>
+      <c r="E83">
+        <v>-0.09598915482088417</v>
+      </c>
+      <c r="F83">
+        <v>-0.1038663101321308</v>
+      </c>
+      <c r="G83">
+        <v>-0.3514280570873988</v>
+      </c>
+      <c r="H83">
+        <v>0.8679213370428693</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8">
       <c r="A84" s="1" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="B84">
-        <v>-0.001246341895520141</v>
+        <v>0.003069211116658273</v>
       </c>
       <c r="C84">
-        <v>-0.004702899679907144</v>
+        <v>-0.01691331601280608</v>
       </c>
       <c r="D84">
-        <v>0.01019143836645292</v>
-      </c>
-    </row>
-    <row r="85" spans="1:4">
+        <v>0.03534770427296552</v>
+      </c>
+      <c r="E84">
+        <v>0.03656251506288497</v>
+      </c>
+      <c r="F84">
+        <v>-0.03500390951822418</v>
+      </c>
+      <c r="G84">
+        <v>-0.04631516377652904</v>
+      </c>
+      <c r="H84">
+        <v>-0.06365207453425871</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8">
       <c r="A85" s="1" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="B85">
-        <v>0.1264738356660977</v>
+        <v>-0.05568175367631628</v>
       </c>
       <c r="C85">
-        <v>-0.1561425139528416</v>
+        <v>-0.1786219446200871</v>
       </c>
       <c r="D85">
-        <v>-0.0864867806534234</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4">
+        <v>-0.1146054713943539</v>
+      </c>
+      <c r="E85">
+        <v>-0.05144053566718504</v>
+      </c>
+      <c r="F85">
+        <v>-0.04392955043880329</v>
+      </c>
+      <c r="G85">
+        <v>-0.01445448378408228</v>
+      </c>
+      <c r="H85">
+        <v>-0.02769590377136697</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8">
       <c r="A86" s="1" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="B86">
-        <v>0.02355886086803432</v>
+        <v>-0.01598723808943831</v>
       </c>
       <c r="C86">
-        <v>-0.01077141256413</v>
+        <v>-0.04083924736801307</v>
       </c>
       <c r="D86">
-        <v>0.07599575108378649</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4">
+        <v>0.08833234512073233</v>
+      </c>
+      <c r="E86">
+        <v>0.0260703577033757</v>
+      </c>
+      <c r="F86">
+        <v>-0.04579727474007071</v>
+      </c>
+      <c r="G86">
+        <v>-0.04187848734471987</v>
+      </c>
+      <c r="H86">
+        <v>-0.04483755040317373</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8">
       <c r="A87" s="1" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="B87">
-        <v>0.02172264820091145</v>
+        <v>-0.01162861976743467</v>
       </c>
       <c r="C87">
-        <v>-0.04133225365312749</v>
+        <v>-0.06913878047050889</v>
       </c>
       <c r="D87">
-        <v>0.115189256511163</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4">
+        <v>0.1057940393532657</v>
+      </c>
+      <c r="E87">
+        <v>0.08528252862966297</v>
+      </c>
+      <c r="F87">
+        <v>-0.05018281622315335</v>
+      </c>
+      <c r="G87">
+        <v>-0.07476199944554111</v>
+      </c>
+      <c r="H87">
+        <v>-0.0130301468061757</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8">
       <c r="A88" s="1" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="B88">
-        <v>0.04581194682726367</v>
+        <v>-0.0339124629288801</v>
       </c>
       <c r="C88">
-        <v>-0.05054682731967346</v>
+        <v>-0.07201771063052906</v>
       </c>
       <c r="D88">
-        <v>0.007116604082754846</v>
-      </c>
-    </row>
-    <row r="89" spans="1:4">
+        <v>0.01174931320625804</v>
+      </c>
+      <c r="E88">
+        <v>0.0339003723076312</v>
+      </c>
+      <c r="F88">
+        <v>-0.01734809848476385</v>
+      </c>
+      <c r="G88">
+        <v>0.0201660703596819</v>
+      </c>
+      <c r="H88">
+        <v>0.001430938308161312</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8">
       <c r="A89" s="1" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="B89">
-        <v>0.3493800942558066</v>
+        <v>-0.3980884799726153</v>
       </c>
       <c r="C89">
-        <v>0.2904684254271423</v>
+        <v>0.1624936182730679</v>
       </c>
       <c r="D89">
-        <v>0.01443398306220702</v>
-      </c>
-    </row>
-    <row r="90" spans="1:4">
+        <v>0.05096421522990114</v>
+      </c>
+      <c r="E89">
+        <v>-0.005205262939216739</v>
+      </c>
+      <c r="F89">
+        <v>-0.07668689274805647</v>
+      </c>
+      <c r="G89">
+        <v>-0.0765131796941817</v>
+      </c>
+      <c r="H89">
+        <v>0.0652420608535545</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8">
       <c r="A90" s="1" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="B90">
-        <v>0.2793253413719899</v>
+        <v>-0.3226215243424125</v>
       </c>
       <c r="C90">
-        <v>0.2097929786455771</v>
+        <v>0.1038458515470248</v>
       </c>
       <c r="D90">
-        <v>0.06070812665749641</v>
-      </c>
-    </row>
-    <row r="91" spans="1:4">
+        <v>0.03431259142222592</v>
+      </c>
+      <c r="E90">
+        <v>0.01365781977225501</v>
+      </c>
+      <c r="F90">
+        <v>0.003593844067716958</v>
+      </c>
+      <c r="G90">
+        <v>-0.05742747095733672</v>
+      </c>
+      <c r="H90">
+        <v>-0.00678561299097485</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8">
       <c r="A91" s="1" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="B91">
-        <v>0.1331022038483974</v>
+        <v>-0.06414818521972239</v>
       </c>
       <c r="C91">
-        <v>-0.1997888995682438</v>
+        <v>-0.2014926943044007</v>
       </c>
       <c r="D91">
-        <v>-0.1014300861606815</v>
-      </c>
-    </row>
-    <row r="92" spans="1:4">
+        <v>-0.08243769118745183</v>
+      </c>
+      <c r="E91">
+        <v>-0.1128383148237251</v>
+      </c>
+      <c r="F91">
+        <v>-0.05218412288069903</v>
+      </c>
+      <c r="G91">
+        <v>-0.0261207787455926</v>
+      </c>
+      <c r="H91">
+        <v>0.007773762076855287</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8">
       <c r="A92" s="1" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="B92">
-        <v>0.2667056140892298</v>
+        <v>-0.3363772497080779</v>
       </c>
       <c r="C92">
-        <v>0.2380283385895824</v>
+        <v>0.1437875450836954</v>
       </c>
       <c r="D92">
-        <v>-0.03533740699211828</v>
-      </c>
-    </row>
-    <row r="93" spans="1:4">
+        <v>0.04281922313398751</v>
+      </c>
+      <c r="E92">
+        <v>-0.04864334877147584</v>
+      </c>
+      <c r="F92">
+        <v>-0.04474023108413173</v>
+      </c>
+      <c r="G92">
+        <v>0.0008655882116963193</v>
+      </c>
+      <c r="H92">
+        <v>-0.1212841535880163</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8">
       <c r="A93" s="1" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="B93">
-        <v>0.2979641384981416</v>
+        <v>-0.3303482030007471</v>
       </c>
       <c r="C93">
-        <v>0.2169417197932151</v>
+        <v>0.1182213390625637</v>
       </c>
       <c r="D93">
-        <v>-0.02604995134302168</v>
-      </c>
-    </row>
-    <row r="94" spans="1:4">
+        <v>-0.02588283561000695</v>
+      </c>
+      <c r="E93">
+        <v>-0.007325805155085702</v>
+      </c>
+      <c r="F93">
+        <v>-0.009040725607632362</v>
+      </c>
+      <c r="G93">
+        <v>0.01892076094092815</v>
+      </c>
+      <c r="H93">
+        <v>-0.03241559788975881</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8">
       <c r="A94" s="1" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="B94">
-        <v>0.242962328916896</v>
+        <v>-0.119594775739106</v>
       </c>
       <c r="C94">
-        <v>-0.2854389552492629</v>
+        <v>-0.3161215816322167</v>
       </c>
       <c r="D94">
-        <v>-0.1145179694754861</v>
-      </c>
-    </row>
-    <row r="95" spans="1:4">
+        <v>-0.2824325508191141</v>
+      </c>
+      <c r="E94">
+        <v>-0.2110617780533691</v>
+      </c>
+      <c r="F94">
+        <v>0.1647777636720311</v>
+      </c>
+      <c r="G94">
+        <v>-0.2619622636847809</v>
+      </c>
+      <c r="H94">
+        <v>-0.1130269924124375</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8">
       <c r="A95" s="1" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="B95">
-        <v>0.0007176038895501589</v>
+        <v>-0.01466132426685487</v>
       </c>
       <c r="C95">
-        <v>-0.05085887721908761</v>
+        <v>-0.07517835193556278</v>
       </c>
       <c r="D95">
-        <v>0.09796576743488544</v>
-      </c>
-    </row>
-    <row r="96" spans="1:4">
+        <v>0.1566159028564988</v>
+      </c>
+      <c r="E95">
+        <v>-0.03563896336026724</v>
+      </c>
+      <c r="F95">
+        <v>-0.001858312299506458</v>
+      </c>
+      <c r="G95">
+        <v>0.03828136315550085</v>
+      </c>
+      <c r="H95">
+        <v>-0.060820283448043</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8">
       <c r="A96" s="1" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -2035,38 +3187,74 @@
       <c r="D96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:4">
+      <c r="E96">
+        <v>0</v>
+      </c>
+      <c r="F96">
+        <v>0</v>
+      </c>
+      <c r="G96">
+        <v>0</v>
+      </c>
+      <c r="H96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8">
       <c r="A97" s="1" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="B97">
-        <v>0</v>
+        <v>-0.002112930731600385</v>
       </c>
       <c r="C97">
-        <v>0</v>
+        <v>-0.0009300508338985867</v>
       </c>
       <c r="D97">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="98" spans="1:4">
+        <v>-0.000698585196137518</v>
+      </c>
+      <c r="E97">
+        <v>0.00364145477123125</v>
+      </c>
+      <c r="F97">
+        <v>-0.0003097505693313532</v>
+      </c>
+      <c r="G97">
+        <v>-0.0009010821916677207</v>
+      </c>
+      <c r="H97">
+        <v>-0.005806710258839731</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8">
       <c r="A98" s="1" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="B98">
-        <v>0.1451336633618927</v>
+        <v>-0.1328448199807529</v>
       </c>
       <c r="C98">
-        <v>-0.1054830721317067</v>
+        <v>-0.1656506550262287</v>
       </c>
       <c r="D98">
-        <v>0.1312996753317139</v>
-      </c>
-    </row>
-    <row r="99" spans="1:4">
+        <v>-0.01602058663772219</v>
+      </c>
+      <c r="E98">
+        <v>0.1550601024675183</v>
+      </c>
+      <c r="F98">
+        <v>0.2635167070851628</v>
+      </c>
+      <c r="G98">
+        <v>0.2969025207737537</v>
+      </c>
+      <c r="H98">
+        <v>0.164592122204904</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8">
       <c r="A99" s="1" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="B99">
         <v>0</v>
@@ -2077,10 +3265,22 @@
       <c r="D99">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="1:4">
+      <c r="E99">
+        <v>0</v>
+      </c>
+      <c r="F99">
+        <v>0</v>
+      </c>
+      <c r="G99">
+        <v>0</v>
+      </c>
+      <c r="H99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8">
       <c r="A100" s="1" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -2091,38 +3291,74 @@
       <c r="D100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:4">
+      <c r="E100">
+        <v>0</v>
+      </c>
+      <c r="F100">
+        <v>0</v>
+      </c>
+      <c r="G100">
+        <v>0</v>
+      </c>
+      <c r="H100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8">
       <c r="A101" s="1" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="B101">
-        <v>-0.003651997890554653</v>
+        <v>-0.00109618314260042</v>
       </c>
       <c r="C101">
-        <v>-0.02330639139288794</v>
+        <v>-0.03979250265919131</v>
       </c>
       <c r="D101">
-        <v>0.06061552460640179</v>
-      </c>
-    </row>
-    <row r="102" spans="1:4">
+        <v>0.06187983847246228</v>
+      </c>
+      <c r="E101">
+        <v>0.1217510884675517</v>
+      </c>
+      <c r="F101">
+        <v>-0.04283717419405091</v>
+      </c>
+      <c r="G101">
+        <v>-0.01034972550237732</v>
+      </c>
+      <c r="H101">
+        <v>0.04385006066057401</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8">
       <c r="A102" s="1" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="B102">
-        <v>0.08151486096977334</v>
+        <v>-0.01858159330500666</v>
       </c>
       <c r="C102">
-        <v>-0.1625851943451216</v>
+        <v>-0.1330769759263274</v>
       </c>
       <c r="D102">
-        <v>0.004514226376351624</v>
-      </c>
-    </row>
-    <row r="103" spans="1:4">
+        <v>-0.07257394698124489</v>
+      </c>
+      <c r="E102">
+        <v>-0.07615167179111534</v>
+      </c>
+      <c r="F102">
+        <v>0.07270072113381169</v>
+      </c>
+      <c r="G102">
+        <v>-0.03930690281569532</v>
+      </c>
+      <c r="H102">
+        <v>0.01428038124360142</v>
+      </c>
+    </row>
+    <row r="103" spans="1:8">
       <c r="A103" s="1" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="B103">
         <v>0</v>
@@ -2133,10 +3369,22 @@
       <c r="D103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:4">
+      <c r="E103">
+        <v>0</v>
+      </c>
+      <c r="F103">
+        <v>0</v>
+      </c>
+      <c r="G103">
+        <v>0</v>
+      </c>
+      <c r="H103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:8">
       <c r="A104" s="1" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="B104">
         <v>0</v>
@@ -2145,6 +3393,18 @@
         <v>0</v>
       </c>
       <c r="D104">
+        <v>0</v>
+      </c>
+      <c r="E104">
+        <v>0</v>
+      </c>
+      <c r="F104">
+        <v>0</v>
+      </c>
+      <c r="G104">
+        <v>0</v>
+      </c>
+      <c r="H104">
         <v>0</v>
       </c>
     </row>
